--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -446,7 +446,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CPSC 4176</t>
+          <t>CYBR Elective1</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -464,7 +464,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CYBR Elective1</t>
+          <t>CPSC 5155</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -500,7 +500,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CPSC 5135</t>
+          <t>CPSC 4176</t>
         </is>
       </c>
       <c r="B5" t="n">
